--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\Desktop\IBMDESC-Poverty\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\Desktop\Subjects\Ibmdesc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Regional designation</t>
   </si>
@@ -134,15 +134,6 @@
     <t>Autonomous Region in Muslim Mindanao</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population </t>
-  </si>
-  <si>
-    <t>NumberOfFamilies</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demographics </t>
   </si>
   <si>
@@ -174,6 +165,18 @@
   </si>
   <si>
     <t>AnnualPerCapitaPovertyThreshold2015</t>
+  </si>
+  <si>
+    <t>Population2012</t>
+  </si>
+  <si>
+    <t>Population2015</t>
+  </si>
+  <si>
+    <t>NumberOfFamilies2012</t>
+  </si>
+  <si>
+    <t>NumberOfFamilies2015</t>
   </si>
 </sst>
 </file>
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,49 +627,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\Desktop\Subjects\Ibmdesc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\IBMDESC-Poverty\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>Regional designation</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>NumberOfFamilies2015</t>
+  </si>
+  <si>
+    <t>RegionalDesignation</t>
   </si>
 </sst>
 </file>
@@ -596,9 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,63 +619,63 @@
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="7">
         <f>12315437/100</f>
@@ -733,10 +731,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="7">
         <f>4874400/100</f>
@@ -792,10 +790,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="7">
         <f>1676617/100</f>
@@ -851,10 +849,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="7">
         <f>3325919/100</f>
@@ -910,10 +908,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="7">
         <f>10609616/100</f>
@@ -969,10 +967,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="7">
         <f>13458967/100</f>
@@ -1028,10 +1026,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="7">
         <f>2851028/100</f>
@@ -1087,10 +1085,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="7">
         <f>5591911/100</f>
@@ -1146,10 +1144,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="7">
         <f>7309153/100</f>
@@ -1205,10 +1203,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="7">
         <f>7060903/100</f>
@@ -1264,10 +1262,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="7">
         <f>4214633/100</f>
@@ -1323,10 +1321,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="7">
         <f>3545610/100</f>
@@ -1382,10 +1380,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="7">
         <f>4489614/100</f>
@@ -1441,10 +1439,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="7">
         <f>4660027/100</f>
@@ -1500,10 +1498,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="7">
         <f>4330622/100</f>
@@ -1559,10 +1557,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="7">
         <f>2507410/100</f>
@@ -1618,10 +1616,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="7">
         <f>3362501/100</f>

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -65,12 +65,6 @@
     <t>CALABARZON</t>
   </si>
   <si>
-    <t>MIMAROPA Region</t>
-  </si>
-  <si>
-    <t>Southwestern Tagalog Region</t>
-  </si>
-  <si>
     <t>Region V</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>RegionalDesignation</t>
+  </si>
+  <si>
+    <t>Region IV-B</t>
+  </si>
+  <si>
+    <t>MIMAROPA</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,12 +208,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -259,9 +253,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -276,8 +267,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -596,7 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -619,1057 +615,1057 @@
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>12315437/100</f>
         <v>123154.37</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>12877253/100</f>
         <v>128772.53</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2917</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>3019</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>236.06</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>3.9</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>3.9</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>2.6</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>2.7</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>1106169/100</f>
         <v>11061.69</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>1282823/100</f>
         <v>12828.23</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>947599/100</f>
         <v>9475.99</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>1053215/100</f>
         <v>10532.15</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>20344</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>25007</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>4874400/100</f>
         <v>48744</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>5026128/100</f>
         <v>50261.279999999999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1105</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1170</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>5024.1899999999996</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>18.5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>13.1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>14</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>9.6</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>225050/100</f>
         <v>2250.5</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>278515/100</f>
         <v>2785.15</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>175220/100</f>
         <v>1752.2</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>212525/100</f>
         <v>2125.25</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>18373</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>20448</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>1676617/100</f>
         <v>16766.169999999998</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>17222006/100</f>
         <v>172220.06</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>375</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>402</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>7498.89</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>22.8</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>19.7</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>17.5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>14.4</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>96351/100</f>
         <v>963.51</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>113531/100</f>
         <v>1135.31</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>70633/100</f>
         <v>706.33</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>84004/100</f>
         <v>840.04</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>19483</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>21770</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>3325919/100</f>
         <v>33259.19</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>3451410/100</f>
         <v>34514.1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>771</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>816</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>10899.21</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>22.1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>15.8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>17</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>11.7</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>150089/100</f>
         <v>1500.89</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>193589/100</f>
         <v>1935.89</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>107884/100</f>
         <v>1078.8399999999999</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>132063/100</f>
         <v>1320.63</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>19125</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>21860</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>10609616/100</f>
         <v>106096.16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>11218177/100</f>
         <v>112181.77</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>2386</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>2507</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>8499.9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>12.9</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>11.2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>10.1</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>8.9</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>618893/100</f>
         <v>6188.93</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>750054/100</f>
         <v>7500.54</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>503995/100</f>
         <v>5039.95</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>600095/100</f>
         <v>6000.95</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>20071</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>23200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>13458967/100</f>
         <v>134589.67000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>14414774/100</f>
         <v>144147.74</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3082</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3251</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>6514.82</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>10.9</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>9.1</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>6.7</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f>876006/100</f>
         <v>8760.06</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f>1013942/100</f>
         <v>10139.42</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <f>748129/100</f>
         <v>7481.29</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <f>875400/100</f>
         <v>8754</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>19137</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>22121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6">
         <f>2851028/100</f>
         <v>28510.28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>2963360/100</f>
         <v>29633.599999999999</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>638</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>697</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>11436.69</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>31</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>24.4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>23.6</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f>114117/100</f>
         <v>1141.17</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f>154612/100</f>
         <v>1546.12</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <f>88215/100</f>
         <v>882.15</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <f>111907/100</f>
         <v>1119.07</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>17292</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>20224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
         <f>5591911/100</f>
         <v>55919.11</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>5796989/100</f>
         <v>57969.89</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1165</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1262</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>7010</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>41.1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>36</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>32.299999999999997</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>27.5</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f>189185/100</f>
         <v>1891.85</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f>236476/100</f>
         <v>2364.7600000000002</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>167256/100</f>
         <v>1672.56</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f>202469/100</f>
         <v>2024.69</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>18257</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>21476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
         <f>7309153/100</f>
         <v>73091.53</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>4477247/100</f>
         <v>44772.47</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1604</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>1699</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>4953.29</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>29.1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>22.4</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>22.8</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f>324028/100</f>
         <v>3240.28</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f>384039/100</f>
         <v>3840.39</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f>260971/100</f>
         <v>2609.71</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <f>299808/100</f>
         <v>2998.08</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>18029</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>21070</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
         <f>7060903/100</f>
         <v>70609.03</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>6041903/100</f>
         <v>60419.03</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1577</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>1672</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>3900.47</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>30.2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>27.6</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>25.7</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>23.6</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f>329415/100</f>
         <v>3294.15</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f>399734/100</f>
         <v>3997.34</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f>258635/100</f>
         <v>2586.35</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <f>323434/100</f>
         <v>3234.34</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>18767</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>21914</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
         <f>4214633/100</f>
         <v>42146.33</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>4440150/100</f>
         <v>44401.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>902</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>976</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>8977.2999999999993</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>45.2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>37.4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>30.7</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <f>149493/100</f>
         <v>1494.93</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f>191720/100</f>
         <v>1917.2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f>118998/100</f>
         <v>1189.98</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <f>151994/100</f>
         <v>1519.94</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>18076</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>21304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6">
         <f>3545610/100</f>
         <v>35456.1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>3629783/100</f>
         <v>36297.83</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>772</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>824</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>6585.64</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>40.1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>33.9</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>33.700000000000003</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>26</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f>124903/100</f>
         <v>1249.03</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f>156872/100</f>
         <v>1568.72</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <f>93829/100</f>
         <v>938.29</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <f>118758/100</f>
         <v>1187.58</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>18054</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>20925</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
         <f>4489614/100</f>
         <v>44896.14</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>4689302/100</f>
         <v>46893.02</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>976</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>1029</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>7913.56</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>39.5</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>36.6</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>30.3</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f>185015/100</f>
         <v>1850.15</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f>227998/100</f>
         <v>2279.98</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <f>139353/100</f>
         <v>1393.53</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <f>166005/100</f>
         <v>1660.05</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>19335</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>22345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="A15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6">
         <f>4660027/100</f>
         <v>46600.27</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>4893318/100</f>
         <v>48933.18</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1078</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>1156</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>7860.04</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>30.7</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>22</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>25</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f>209405/100</f>
         <v>2094.0500000000002</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f>285560/100</f>
         <v>2855.6</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>167651/100</f>
         <v>1676.51</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <f>219680/100</f>
         <v>2196.8000000000002</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <v>19967</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>22754</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6">
         <f>4330622/100</f>
         <v>43306.22</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>4545276/100</f>
         <v>45452.76</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>988</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>1055</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>8692.43</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>44.7</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>37.299999999999997</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>37.1</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>30.5</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f>160674/100</f>
         <v>1606.74</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f>198438/100</f>
         <v>1984.38</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f>138089/100</f>
         <v>1380.89</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <f>170863/100</f>
         <v>1708.63</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>18737</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>21025</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
         <f>2507410/100</f>
         <v>25074.1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>2596709/100</f>
         <v>25967.09</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>532</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>579</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>8292.84</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>40.299999999999997</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>39.1</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>31.9</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>30.8</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f>95809/100</f>
         <v>958.09</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f>114745/100</f>
         <v>1147.45</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f>75352/100</f>
         <v>753.52</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <f>92243/100</f>
         <v>922.43</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <v>19629</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>22570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6">
         <f>3362501/100</f>
         <v>33625.01</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>3781387/100</f>
         <v>37813.870000000003</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>557</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>616</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>4840.1000000000004</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>53.7</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>53.7</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>48.7</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>48.2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f>72196/100</f>
         <v>721.96</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f>85514/100</f>
         <v>855.14</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f>63506/100</f>
         <v>635.05999999999995</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <f>68397/100</f>
         <v>683.97</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <v>20517</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>21563</v>
       </c>
     </row>

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\IBMDESC-Poverty\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\IBMDESC-Poverty\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Region</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>MIMAROPA</t>
+  </si>
+  <si>
+    <t>LaborProductivity2012</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -588,10 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,9 +616,10 @@
     <col min="15" max="15" width="21.42578125" customWidth="1"/>
     <col min="16" max="16" width="26.5703125" customWidth="1"/>
     <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -665,8 +671,11 @@
       <c r="Q1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -724,8 +733,11 @@
       <c r="Q2" s="4">
         <v>25007</v>
       </c>
+      <c r="R2" s="11">
+        <v>501123</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -783,8 +795,11 @@
       <c r="Q3" s="4">
         <v>20448</v>
       </c>
+      <c r="R3" s="11">
+        <v>103184</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -842,8 +857,11 @@
       <c r="Q4" s="4">
         <v>21770</v>
       </c>
+      <c r="R4" s="11">
+        <v>162642</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -901,8 +919,11 @@
       <c r="Q5" s="4">
         <v>21860</v>
       </c>
+      <c r="R5" s="11">
+        <v>78027</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -960,8 +981,11 @@
       <c r="Q6" s="4">
         <v>23200</v>
       </c>
+      <c r="R6" s="11">
+        <v>151196</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1019,8 +1043,11 @@
       <c r="Q7" s="4">
         <v>22121</v>
       </c>
+      <c r="R7" s="11">
+        <v>230968</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -1078,8 +1105,11 @@
       <c r="Q8" s="4">
         <v>20224</v>
       </c>
+      <c r="R8" s="11">
+        <v>8618</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1137,8 +1167,11 @@
       <c r="Q9" s="4">
         <v>21476</v>
       </c>
+      <c r="R9" s="11">
+        <v>55798</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1196,8 +1229,11 @@
       <c r="Q10" s="4">
         <v>21070</v>
       </c>
+      <c r="R10" s="11">
+        <v>85834</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1255,8 +1291,11 @@
       <c r="Q11" s="4">
         <v>21914</v>
       </c>
+      <c r="R11" s="11">
+        <v>135996</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1314,8 +1353,11 @@
       <c r="Q12" s="4">
         <v>21304</v>
       </c>
+      <c r="R12" s="11">
+        <v>80982</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1373,8 +1415,11 @@
       <c r="Q13" s="4">
         <v>20925</v>
       </c>
+      <c r="R13" s="11">
+        <v>94907</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1432,8 +1477,11 @@
       <c r="Q14" s="4">
         <v>22345</v>
       </c>
+      <c r="R14" s="11">
+        <v>121499</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1491,8 +1539,11 @@
       <c r="Q15" s="4">
         <v>22754</v>
       </c>
+      <c r="R15" s="11">
+        <v>128692</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1550,8 +1601,11 @@
       <c r="Q16" s="4">
         <v>21025</v>
       </c>
+      <c r="R16" s="11">
+        <v>101590</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -1609,8 +1663,11 @@
       <c r="Q17" s="4">
         <v>22570</v>
       </c>
+      <c r="R17" s="11">
+        <v>75024</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -1667,6 +1724,9 @@
       </c>
       <c r="Q18" s="4">
         <v>21563</v>
+      </c>
+      <c r="R18" s="11">
+        <v>38647</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Region</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>LaborProductivity2012</t>
+  </si>
+  <si>
+    <t>LaborProductivity2015</t>
   </si>
 </sst>
 </file>
@@ -592,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,9 +620,10 @@
     <col min="16" max="16" width="26.5703125" customWidth="1"/>
     <col min="17" max="17" width="26.42578125" customWidth="1"/>
     <col min="18" max="18" width="27.5703125" customWidth="1"/>
+    <col min="19" max="19" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -674,8 +678,11 @@
       <c r="R1" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -736,8 +743,11 @@
       <c r="R2" s="11">
         <v>501123</v>
       </c>
+      <c r="S2" s="11">
+        <v>583368</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="R3" s="11">
         <v>103184</v>
       </c>
+      <c r="S3" s="4">
+        <v>117327</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -860,8 +873,11 @@
       <c r="R4" s="11">
         <v>162642</v>
       </c>
+      <c r="S4" s="4">
+        <v>175870</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -922,8 +938,11 @@
       <c r="R5" s="11">
         <v>78027</v>
       </c>
+      <c r="S5" s="4">
+        <v>88532</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -984,8 +1003,11 @@
       <c r="R6" s="11">
         <v>151196</v>
       </c>
+      <c r="S6" s="4">
+        <v>170684</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1046,8 +1068,11 @@
       <c r="R7" s="11">
         <v>230968</v>
       </c>
+      <c r="S7" s="4">
+        <v>256386</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
@@ -1108,8 +1133,11 @@
       <c r="R8" s="11">
         <v>8618</v>
       </c>
+      <c r="S8" s="4">
+        <v>94144</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1170,8 +1198,11 @@
       <c r="R9" s="11">
         <v>55798</v>
       </c>
+      <c r="S9" s="4">
+        <v>65196</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1232,8 +1263,11 @@
       <c r="R10" s="11">
         <v>85834</v>
       </c>
+      <c r="S10" s="4">
+        <v>95211</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1294,8 +1328,11 @@
       <c r="R11" s="11">
         <v>135996</v>
       </c>
+      <c r="S11" s="4">
+        <v>150228</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1356,8 +1393,11 @@
       <c r="R12" s="11">
         <v>80982</v>
       </c>
+      <c r="S12" s="4">
+        <v>150555</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1418,8 +1458,11 @@
       <c r="R13" s="11">
         <v>94907</v>
       </c>
+      <c r="S13" s="4">
+        <v>113384</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1480,8 +1523,11 @@
       <c r="R14" s="11">
         <v>121499</v>
       </c>
+      <c r="S14" s="4">
+        <v>142402</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="R15" s="11">
         <v>128692</v>
       </c>
+      <c r="S15" s="4">
+        <v>157780</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1653,11 @@
       <c r="R16" s="11">
         <v>101590</v>
       </c>
+      <c r="S16" s="4">
+        <v>115772</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -1666,8 +1718,11 @@
       <c r="R17" s="11">
         <v>75024</v>
       </c>
+      <c r="S17" s="4">
+        <v>88178</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -1727,6 +1782,9 @@
       </c>
       <c r="R18" s="11">
         <v>38647</v>
+      </c>
+      <c r="S18" s="4">
+        <v>40008</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\IBMDESC-Poverty\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\IBMDESC-Poverty\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -254,7 +254,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,7 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -598,8 +597,8 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +739,10 @@
       <c r="Q2" s="4">
         <v>25007</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="4">
         <v>501123</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="4">
         <v>583368</v>
       </c>
     </row>
@@ -805,7 +804,7 @@
       <c r="Q3" s="4">
         <v>20448</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="4">
         <v>103184</v>
       </c>
       <c r="S3" s="4">
@@ -870,7 +869,7 @@
       <c r="Q4" s="4">
         <v>21770</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="4">
         <v>162642</v>
       </c>
       <c r="S4" s="4">
@@ -935,7 +934,7 @@
       <c r="Q5" s="4">
         <v>21860</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="4">
         <v>78027</v>
       </c>
       <c r="S5" s="4">
@@ -1000,7 +999,7 @@
       <c r="Q6" s="4">
         <v>23200</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="4">
         <v>151196</v>
       </c>
       <c r="S6" s="4">
@@ -1065,7 +1064,7 @@
       <c r="Q7" s="4">
         <v>22121</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="4">
         <v>230968</v>
       </c>
       <c r="S7" s="4">
@@ -1130,7 +1129,7 @@
       <c r="Q8" s="4">
         <v>20224</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="4">
         <v>8618</v>
       </c>
       <c r="S8" s="4">
@@ -1195,7 +1194,7 @@
       <c r="Q9" s="4">
         <v>21476</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="4">
         <v>55798</v>
       </c>
       <c r="S9" s="4">
@@ -1260,7 +1259,7 @@
       <c r="Q10" s="4">
         <v>21070</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="4">
         <v>85834</v>
       </c>
       <c r="S10" s="4">
@@ -1325,7 +1324,7 @@
       <c r="Q11" s="4">
         <v>21914</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="4">
         <v>135996</v>
       </c>
       <c r="S11" s="4">
@@ -1390,7 +1389,7 @@
       <c r="Q12" s="4">
         <v>21304</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="4">
         <v>80982</v>
       </c>
       <c r="S12" s="4">
@@ -1455,7 +1454,7 @@
       <c r="Q13" s="4">
         <v>20925</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="4">
         <v>94907</v>
       </c>
       <c r="S13" s="4">
@@ -1520,7 +1519,7 @@
       <c r="Q14" s="4">
         <v>22345</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="4">
         <v>121499</v>
       </c>
       <c r="S14" s="4">
@@ -1585,7 +1584,7 @@
       <c r="Q15" s="4">
         <v>22754</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="4">
         <v>128692</v>
       </c>
       <c r="S15" s="4">
@@ -1650,7 +1649,7 @@
       <c r="Q16" s="4">
         <v>21025</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="4">
         <v>101590</v>
       </c>
       <c r="S16" s="4">
@@ -1715,7 +1714,7 @@
       <c r="Q17" s="4">
         <v>22570</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="4">
         <v>75024</v>
       </c>
       <c r="S17" s="4">
@@ -1780,7 +1779,7 @@
       <c r="Q18" s="4">
         <v>21563</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="4">
         <v>38647</v>
       </c>
       <c r="S18" s="4">

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -273,9 +273,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,8 +601,8 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S6" sqref="S6"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +686,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -702,7 +706,7 @@
       <c r="F2" s="7">
         <v>3019</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>236.06</v>
       </c>
       <c r="H2" s="3">
@@ -740,14 +744,16 @@
         <v>25007</v>
       </c>
       <c r="R2" s="4">
-        <v>501123</v>
+        <f>501123/100</f>
+        <v>5011.2299999999996</v>
       </c>
       <c r="S2" s="4">
-        <v>583368</v>
+        <f>583368/100</f>
+        <v>5833.68</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -767,7 +773,7 @@
       <c r="F3" s="7">
         <v>1170</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>5024.1899999999996</v>
       </c>
       <c r="H3" s="3">
@@ -805,14 +811,16 @@
         <v>20448</v>
       </c>
       <c r="R3" s="4">
-        <v>103184</v>
+        <f>103184/100</f>
+        <v>1031.8399999999999</v>
       </c>
       <c r="S3" s="4">
-        <v>117327</v>
+        <f>117327/100</f>
+        <v>1173.27</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -832,7 +840,7 @@
       <c r="F4" s="7">
         <v>402</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>7498.89</v>
       </c>
       <c r="H4" s="3">
@@ -870,14 +878,16 @@
         <v>21770</v>
       </c>
       <c r="R4" s="4">
-        <v>162642</v>
+        <f>162642/100</f>
+        <v>1626.42</v>
       </c>
       <c r="S4" s="4">
-        <v>175870</v>
+        <f>175870/100</f>
+        <v>1758.7</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -897,7 +907,7 @@
       <c r="F5" s="7">
         <v>816</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>10899.21</v>
       </c>
       <c r="H5" s="3">
@@ -935,14 +945,16 @@
         <v>21860</v>
       </c>
       <c r="R5" s="4">
-        <v>78027</v>
+        <f>78027/100</f>
+        <v>780.27</v>
       </c>
       <c r="S5" s="4">
-        <v>88532</v>
+        <f>88532/100</f>
+        <v>885.32</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -962,7 +974,7 @@
       <c r="F6" s="7">
         <v>2507</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>8499.9</v>
       </c>
       <c r="H6" s="3">
@@ -1000,14 +1012,16 @@
         <v>23200</v>
       </c>
       <c r="R6" s="4">
-        <v>151196</v>
+        <f>151196/100</f>
+        <v>1511.96</v>
       </c>
       <c r="S6" s="4">
-        <v>170684</v>
+        <f>170684/100</f>
+        <v>1706.84</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1027,7 +1041,7 @@
       <c r="F7" s="7">
         <v>3251</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>6514.82</v>
       </c>
       <c r="H7" s="3">
@@ -1065,14 +1079,16 @@
         <v>22121</v>
       </c>
       <c r="R7" s="4">
-        <v>230968</v>
+        <f>230968/100</f>
+        <v>2309.6799999999998</v>
       </c>
       <c r="S7" s="4">
-        <v>256386</v>
+        <f>256386/100</f>
+        <v>2563.86</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1092,7 +1108,7 @@
       <c r="F8" s="7">
         <v>697</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>11436.69</v>
       </c>
       <c r="H8" s="3">
@@ -1130,14 +1146,16 @@
         <v>20224</v>
       </c>
       <c r="R8" s="4">
-        <v>8618</v>
+        <f>8618/100</f>
+        <v>86.18</v>
       </c>
       <c r="S8" s="4">
-        <v>94144</v>
+        <f>94144/100</f>
+        <v>941.44</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1157,7 +1175,7 @@
       <c r="F9" s="7">
         <v>1262</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>7010</v>
       </c>
       <c r="H9" s="3">
@@ -1195,14 +1213,16 @@
         <v>21476</v>
       </c>
       <c r="R9" s="4">
-        <v>55798</v>
+        <f>55798/100</f>
+        <v>557.98</v>
       </c>
       <c r="S9" s="4">
-        <v>65196</v>
+        <f>65196/100</f>
+        <v>651.96</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1222,7 +1242,7 @@
       <c r="F10" s="7">
         <v>1699</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>4953.29</v>
       </c>
       <c r="H10" s="3">
@@ -1260,14 +1280,16 @@
         <v>21070</v>
       </c>
       <c r="R10" s="4">
-        <v>85834</v>
+        <f>85834/100</f>
+        <v>858.34</v>
       </c>
       <c r="S10" s="4">
-        <v>95211</v>
+        <f>95211/100</f>
+        <v>952.11</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1287,7 +1309,7 @@
       <c r="F11" s="7">
         <v>1672</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>3900.47</v>
       </c>
       <c r="H11" s="3">
@@ -1325,14 +1347,16 @@
         <v>21914</v>
       </c>
       <c r="R11" s="4">
-        <v>135996</v>
+        <f>135996/100</f>
+        <v>1359.96</v>
       </c>
       <c r="S11" s="4">
-        <v>150228</v>
+        <f>150228/100</f>
+        <v>1502.28</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1352,7 +1376,7 @@
       <c r="F12" s="7">
         <v>976</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>8977.2999999999993</v>
       </c>
       <c r="H12" s="3">
@@ -1390,14 +1414,16 @@
         <v>21304</v>
       </c>
       <c r="R12" s="4">
-        <v>80982</v>
+        <f>80982/100</f>
+        <v>809.82</v>
       </c>
       <c r="S12" s="4">
-        <v>150555</v>
+        <f>150555/100</f>
+        <v>1505.55</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1417,7 +1443,7 @@
       <c r="F13" s="7">
         <v>824</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>6585.64</v>
       </c>
       <c r="H13" s="3">
@@ -1455,14 +1481,16 @@
         <v>20925</v>
       </c>
       <c r="R13" s="4">
-        <v>94907</v>
+        <f>94907/100</f>
+        <v>949.07</v>
       </c>
       <c r="S13" s="4">
-        <v>113384</v>
+        <f>113384/100</f>
+        <v>1133.8399999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1482,7 +1510,7 @@
       <c r="F14" s="7">
         <v>1029</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>7913.56</v>
       </c>
       <c r="H14" s="3">
@@ -1520,14 +1548,16 @@
         <v>22345</v>
       </c>
       <c r="R14" s="4">
-        <v>121499</v>
+        <f>121499/100</f>
+        <v>1214.99</v>
       </c>
       <c r="S14" s="4">
-        <v>142402</v>
+        <f>142402/100</f>
+        <v>1424.02</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1547,7 +1577,7 @@
       <c r="F15" s="7">
         <v>1156</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>7860.04</v>
       </c>
       <c r="H15" s="3">
@@ -1585,14 +1615,16 @@
         <v>22754</v>
       </c>
       <c r="R15" s="4">
-        <v>128692</v>
+        <f>128692/100</f>
+        <v>1286.92</v>
       </c>
       <c r="S15" s="4">
-        <v>157780</v>
+        <f>157780/100</f>
+        <v>1577.8</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1612,7 +1644,7 @@
       <c r="F16" s="7">
         <v>1055</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>8692.43</v>
       </c>
       <c r="H16" s="3">
@@ -1650,14 +1682,16 @@
         <v>21025</v>
       </c>
       <c r="R16" s="4">
-        <v>101590</v>
+        <f>101590/100</f>
+        <v>1015.9</v>
       </c>
       <c r="S16" s="4">
-        <v>115772</v>
+        <f>115772/100</f>
+        <v>1157.72</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1677,7 +1711,7 @@
       <c r="F17" s="7">
         <v>579</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>8292.84</v>
       </c>
       <c r="H17" s="3">
@@ -1715,14 +1749,16 @@
         <v>22570</v>
       </c>
       <c r="R17" s="4">
-        <v>75024</v>
+        <f>75024/100</f>
+        <v>750.24</v>
       </c>
       <c r="S17" s="4">
-        <v>88178</v>
+        <f>88178/100</f>
+        <v>881.78</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1742,7 +1778,7 @@
       <c r="F18" s="7">
         <v>616</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>4840.1000000000004</v>
       </c>
       <c r="H18" s="3">
@@ -1780,10 +1816,12 @@
         <v>21563</v>
       </c>
       <c r="R18" s="4">
-        <v>38647</v>
+        <f>38647/100</f>
+        <v>386.47</v>
       </c>
       <c r="S18" s="4">
-        <v>40008</v>
+        <f>40008/100</f>
+        <v>400.08</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\IBMDESC-Poverty\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\IBMDESC-Poverty\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Region</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>LaborProductivity2015</t>
+  </si>
+  <si>
+    <t>NumberOfOutOfSchool6to24</t>
+  </si>
+  <si>
+    <t>NoOfSchool</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +288,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -598,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,9 +631,11 @@
     <col min="17" max="17" width="26.42578125" customWidth="1"/>
     <col min="18" max="18" width="27.5703125" customWidth="1"/>
     <col min="19" max="19" width="29.5703125" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -684,8 +693,14 @@
       <c r="S1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -751,8 +766,11 @@
         <f>583368/100</f>
         <v>5833.68</v>
       </c>
+      <c r="T2" s="11">
+        <v>4556</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -818,8 +836,11 @@
         <f>117327/100</f>
         <v>1173.27</v>
       </c>
+      <c r="T3" s="11">
+        <v>1806</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -885,8 +906,11 @@
         <f>175870/100</f>
         <v>1758.7</v>
       </c>
+      <c r="T4" s="11">
+        <v>681</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -952,8 +976,11 @@
         <f>88532/100</f>
         <v>885.32</v>
       </c>
+      <c r="T5" s="11">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1019,8 +1046,11 @@
         <f>170684/100</f>
         <v>1706.84</v>
       </c>
+      <c r="T6" s="11">
+        <v>4060</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1116,11 @@
         <f>256386/100</f>
         <v>2563.86</v>
       </c>
+      <c r="T7" s="11">
+        <v>5209</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -1153,8 +1186,11 @@
         <f>94144/100</f>
         <v>941.44</v>
       </c>
+      <c r="T8" s="11">
+        <v>1189</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1220,8 +1256,11 @@
         <f>65196/100</f>
         <v>651.96</v>
       </c>
+      <c r="T9" s="11">
+        <v>2344</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1287,8 +1326,11 @@
         <f>95211/100</f>
         <v>952.11</v>
       </c>
+      <c r="T10" s="11">
+        <v>2832</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1354,8 +1396,11 @@
         <f>150228/100</f>
         <v>1502.28</v>
       </c>
+      <c r="T11" s="11">
+        <v>2776</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1421,8 +1466,9 @@
         <f>150555/100</f>
         <v>1505.55</v>
       </c>
+      <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1488,8 +1534,11 @@
         <f>113384/100</f>
         <v>1133.8399999999999</v>
       </c>
+      <c r="T13" s="11">
+        <v>1475</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1555,8 +1604,11 @@
         <f>142402/100</f>
         <v>1424.02</v>
       </c>
+      <c r="T14" s="11">
+        <v>1846</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1622,8 +1674,11 @@
         <f>157780/100</f>
         <v>1577.8</v>
       </c>
+      <c r="T15" s="11">
+        <v>1862</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -1689,8 +1744,11 @@
         <f>115772/100</f>
         <v>1157.72</v>
       </c>
+      <c r="T16" s="11">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1756,8 +1814,11 @@
         <f>88178/100</f>
         <v>881.78</v>
       </c>
+      <c r="T17" s="11">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -1822,6 +1883,9 @@
       <c r="S18" s="4">
         <f>40008/100</f>
         <v>400.08</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1511</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataV3.xlsx
+++ b/Documentation/DataV3.xlsx
@@ -260,7 +260,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,7 +288,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -607,9 +606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,8 +765,11 @@
         <f>583368/100</f>
         <v>5833.68</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="4">
         <v>4556</v>
+      </c>
+      <c r="U2" s="4">
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -836,8 +838,11 @@
         <f>117327/100</f>
         <v>1173.27</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="4">
         <v>1806</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2926</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -906,8 +911,11 @@
         <f>175870/100</f>
         <v>1758.7</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="4">
         <v>681</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1816</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -976,8 +984,11 @@
         <f>88532/100</f>
         <v>885.32</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="4">
         <v>1261</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2583</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1046,8 +1057,11 @@
         <f>170684/100</f>
         <v>1706.84</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="4">
         <v>4060</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3621</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1116,8 +1130,11 @@
         <f>256386/100</f>
         <v>2563.86</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="4">
         <v>5209</v>
+      </c>
+      <c r="U7" s="4">
+        <v>3392</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1186,8 +1203,11 @@
         <f>94144/100</f>
         <v>941.44</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="4">
         <v>1189</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2198</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1256,8 +1276,11 @@
         <f>65196/100</f>
         <v>651.96</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="4">
         <v>2344</v>
+      </c>
+      <c r="U9" s="4">
+        <v>3798</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1326,8 +1349,11 @@
         <f>95211/100</f>
         <v>952.11</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="4">
         <v>2832</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4050</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1396,8 +1422,11 @@
         <f>150228/100</f>
         <v>1502.28</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="4">
         <v>2776</v>
+      </c>
+      <c r="U11" s="4">
+        <v>3737</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1466,7 +1495,10 @@
         <f>150555/100</f>
         <v>1505.55</v>
       </c>
-      <c r="T12" s="11"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4">
+        <v>4132</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1534,8 +1566,11 @@
         <f>113384/100</f>
         <v>1133.8399999999999</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="4">
         <v>1475</v>
+      </c>
+      <c r="U13" s="4">
+        <v>2488</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1604,8 +1639,11 @@
         <f>142402/100</f>
         <v>1424.02</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="4">
         <v>1846</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2441</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1674,8 +1712,11 @@
         <f>157780/100</f>
         <v>1577.8</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="4">
         <v>1862</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1933</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1744,11 +1785,14 @@
         <f>115772/100</f>
         <v>1157.72</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="4">
         <v>1791</v>
       </c>
+      <c r="U16" s="4">
+        <v>2168</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1814,11 +1858,14 @@
         <f>88178/100</f>
         <v>881.78</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="4">
         <v>1039</v>
       </c>
+      <c r="U17" s="4">
+        <v>2038</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -1884,8 +1931,11 @@
         <f>40008/100</f>
         <v>400.08</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="4">
         <v>1511</v>
+      </c>
+      <c r="U18" s="4">
+        <v>2514</v>
       </c>
     </row>
   </sheetData>
